--- a/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03844036621268156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05187464459421117</v>
+        <v>0.05187464459421118</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01576100825523259</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009635050694919418</v>
+        <v>0.009455090978698412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01858308316548175</v>
+        <v>0.01898804581109562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02022381348638103</v>
+        <v>0.02054648402726434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02954215177186501</v>
+        <v>0.0284164560632109</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004090244747591789</v>
+        <v>0.004055535705490262</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04127433144564523</v>
+        <v>0.04363427584455658</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02502781630122177</v>
+        <v>0.02363963727953649</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01597093858845689</v>
+        <v>0.01389361916121223</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00907534861306937</v>
+        <v>0.009617764040510918</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03729491926573301</v>
+        <v>0.03740753003535003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02637591085600296</v>
+        <v>0.02527275751413123</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02610986553067543</v>
+        <v>0.02571019858295004</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04789979946114065</v>
+        <v>0.04767589547430776</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06981271422538946</v>
+        <v>0.06599740219316218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06727148970267972</v>
+        <v>0.06702092620620893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09004562834221252</v>
+        <v>0.09367220007419938</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03935889896571772</v>
+        <v>0.04120498974932624</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1020193846688818</v>
+        <v>0.1079356870948902</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07717113489779276</v>
+        <v>0.07658608916923039</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05921078948634539</v>
+        <v>0.05696509602515163</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03531073392858126</v>
+        <v>0.03438897302615725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07442245109748975</v>
+        <v>0.07510136568976108</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06283592825409311</v>
+        <v>0.05957009134708343</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06381428023329663</v>
+        <v>0.06354671555219095</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02838387554184015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04590107669125101</v>
+        <v>0.045901076691251</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06267062275474583</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01020315989661493</v>
+        <v>0.01126301617666397</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04147307540324659</v>
+        <v>0.04296458277437522</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01762858336357056</v>
+        <v>0.01591462762643328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02632607272423103</v>
+        <v>0.02561470113586524</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04229640105878247</v>
+        <v>0.04412793388303271</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05158936079946032</v>
+        <v>0.05126773434483137</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0490222220241924</v>
+        <v>0.04921061841375179</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03725091003571563</v>
+        <v>0.03955681640573991</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03096854317130158</v>
+        <v>0.03067494895032133</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05309271746584741</v>
+        <v>0.05121946492284533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03592804011818582</v>
+        <v>0.03681858425070275</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03669142253860736</v>
+        <v>0.03723539055470054</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03983434297414055</v>
+        <v>0.04082333991324587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09419592169941328</v>
+        <v>0.09559500143548193</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04902740092211809</v>
+        <v>0.04776304313576598</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07746302822029545</v>
+        <v>0.07331478942041987</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08608567824947548</v>
+        <v>0.08725805710442215</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09645350345743289</v>
+        <v>0.09963425789353167</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09387445796876463</v>
+        <v>0.09462149743150196</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07253489594044978</v>
+        <v>0.07141392107512383</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05811248182041906</v>
+        <v>0.05663831795751297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09055915596547558</v>
+        <v>0.08603486190052198</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06380025355039601</v>
+        <v>0.06338928646248562</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06465027748326309</v>
+        <v>0.06558752556902042</v>
       </c>
     </row>
     <row r="10">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008890084959236561</v>
+        <v>0.008998265725908968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01255187689501616</v>
+        <v>0.01368798246234249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01437171395413478</v>
+        <v>0.01343760582840661</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01396852050333146</v>
+        <v>0.01364730242276909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04749425305951627</v>
+        <v>0.04703717665611721</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01608313494182519</v>
+        <v>0.01599789083105313</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01218878865803505</v>
+        <v>0.01233250990496433</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00913395035747403</v>
+        <v>0.008796466841208623</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03352904168772264</v>
+        <v>0.03336540047014751</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01805019941101159</v>
+        <v>0.01898071051061953</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01613654077391338</v>
+        <v>0.01438114846962086</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02788378727162734</v>
+        <v>0.03360798959649069</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04404582324847023</v>
+        <v>0.04236753667314075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05214296926099024</v>
+        <v>0.05340117791151835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05979739724757269</v>
+        <v>0.05746719996329</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04853027858021353</v>
+        <v>0.04617156584863871</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1028940551296382</v>
+        <v>0.1043794583342298</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0513726417998715</v>
+        <v>0.05208335660323463</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03876816737003311</v>
+        <v>0.03721537324852926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03084623735811204</v>
+        <v>0.03063915327850816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06611256582060621</v>
+        <v>0.06545743276120501</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04387007524197071</v>
+        <v>0.0454186143543414</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04037337984564583</v>
+        <v>0.04037854206185642</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01259434307771365</v>
+        <v>0.01217317116764042</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008252556455798211</v>
+        <v>0.008553519831415552</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02368241676631532</v>
+        <v>0.02418793583752466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.007157134669121563</v>
+        <v>0.006159157055747428</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01927686759243048</v>
+        <v>0.01910863357148763</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02407697604243728</v>
+        <v>0.02376684233846223</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04500845812450849</v>
+        <v>0.04402126655531812</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01665058515535137</v>
+        <v>0.01507794066542074</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02041996599977096</v>
+        <v>0.01956628571675301</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01974004043531799</v>
+        <v>0.0201702356372611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03807862015689496</v>
+        <v>0.03772158460532974</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01571579766454132</v>
+        <v>0.01512526776335186</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05154028125843863</v>
+        <v>0.05220759888756887</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04122084584010354</v>
+        <v>0.03963414183925874</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07002157806717574</v>
+        <v>0.07056992523184323</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04980963832965934</v>
+        <v>0.04790543907567379</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05748503365770435</v>
+        <v>0.05984842145510701</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06404063544807093</v>
+        <v>0.0628241764587489</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09992784226277604</v>
+        <v>0.0950963087445707</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05258007635594251</v>
+        <v>0.05085696237308399</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04666389085796839</v>
+        <v>0.04615110013334534</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04528437335549069</v>
+        <v>0.04456696808726414</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07500834735205646</v>
+        <v>0.07460769639975796</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04215867572117287</v>
+        <v>0.04201618529355137</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0463832106534432</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03857858704621062</v>
+        <v>0.03857858704621061</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05932427736452443</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.014261241968009</v>
+        <v>0.01387510995054828</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01898014103029393</v>
+        <v>0.01880214308330978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008014305491467099</v>
+        <v>0.008035471142037899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01503391045641949</v>
+        <v>0.01480278717450236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05018986088795398</v>
+        <v>0.05040447790468232</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06107689819023858</v>
+        <v>0.06121977632603365</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02387360129398809</v>
+        <v>0.02559173758214294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02343683097136942</v>
+        <v>0.02383413543045366</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03904841393316692</v>
+        <v>0.03827089084932075</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04992532159377827</v>
+        <v>0.04787981223174381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01932448394556423</v>
+        <v>0.01943862351104939</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02297107084682338</v>
+        <v>0.02349091292362285</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06546442423636703</v>
+        <v>0.06590190446409051</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07468813798528903</v>
+        <v>0.07630767892031044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04674797059231814</v>
+        <v>0.04639441348107148</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06561456671743715</v>
+        <v>0.06599174308734131</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1382591860844933</v>
+        <v>0.1327245283021481</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.141266620289632</v>
+        <v>0.1392588768118423</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07930030784789616</v>
+        <v>0.07888979147562886</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06272048632843528</v>
+        <v>0.06192654270741763</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08958211198655444</v>
+        <v>0.08626174127455769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09724513575315999</v>
+        <v>0.09805069427283432</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05312874686963937</v>
+        <v>0.05450480263017393</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0550484770622402</v>
+        <v>0.05629263285917854</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.05004811822530995</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0376487719490196</v>
+        <v>0.03764877194901957</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02598572476917996</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003811163918829077</v>
+        <v>0.003775073626186157</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01709111483885353</v>
+        <v>0.01814999736821384</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01869646737713871</v>
+        <v>0.01853802145909249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009632894269727996</v>
+        <v>0.0102642321432419</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01798655344548683</v>
+        <v>0.01758610458288164</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02725579352493534</v>
+        <v>0.02938928411287937</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02739670413467244</v>
+        <v>0.02899041592856062</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02110778787150681</v>
+        <v>0.02118435446949311</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0154098672459058</v>
+        <v>0.01448879219212754</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02828925987714395</v>
+        <v>0.02803135890790292</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02746066362817949</v>
+        <v>0.02758328908971935</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01850526189574997</v>
+        <v>0.01839477974264478</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04104807204590927</v>
+        <v>0.04153365512296711</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06690976911738492</v>
+        <v>0.06873508290730408</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.06771523451899526</v>
+        <v>0.06550257371847572</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04988765347120892</v>
+        <v>0.04824676937613295</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06603826210423672</v>
+        <v>0.06216030864925943</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0858542897505834</v>
+        <v>0.08979119176501181</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.08500351334340082</v>
+        <v>0.08852511178634025</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06757567849130458</v>
+        <v>0.06439620176765541</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04215128077361167</v>
+        <v>0.0449450916644864</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06376702326714634</v>
+        <v>0.06511062184785509</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06271944145955602</v>
+        <v>0.06519429385479376</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04623047528557942</v>
+        <v>0.04769238552506366</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.0574265157601403</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07338405690133577</v>
+        <v>0.07338405690133576</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02222617176782674</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006766896855815817</v>
+        <v>0.007007869985740118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007367932567599439</v>
+        <v>0.007817459257090729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01243544249924894</v>
+        <v>0.01213859104118709</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01895310620479457</v>
+        <v>0.01885302108175237</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.017749099470255</v>
+        <v>0.01781107097589873</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02677885232661762</v>
+        <v>0.02730780673905406</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04165769804213519</v>
+        <v>0.04128934968176352</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05640867616063241</v>
+        <v>0.05660443850188612</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01517740531636328</v>
+        <v>0.01501694296060804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02021129284601001</v>
+        <v>0.02034337789645465</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02994004392568644</v>
+        <v>0.02997291144373666</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04153942961320777</v>
+        <v>0.04164554416912604</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02876622395392139</v>
+        <v>0.02990410079209073</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0275906105055448</v>
+        <v>0.02676153586763337</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03908620277512066</v>
+        <v>0.03883629270485531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04699751644693036</v>
+        <v>0.04801016832004856</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04646238937520818</v>
+        <v>0.04537451739942214</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0584747247916599</v>
+        <v>0.05880176476346056</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07869760756199794</v>
+        <v>0.07812013930748873</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09451876069961655</v>
+        <v>0.09439818783503938</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03250585100324158</v>
+        <v>0.03292496868397027</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03952270145353017</v>
+        <v>0.04055400041038533</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05214205511659833</v>
+        <v>0.05319393635995173</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06629682794643853</v>
+        <v>0.06564017239491636</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02591325944415231</v>
+        <v>0.02541827230607344</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02500258769351851</v>
+        <v>0.02446728711420307</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0226579560453726</v>
+        <v>0.02161097594869429</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02212424160138077</v>
+        <v>0.02191307941983684</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02544248389179559</v>
+        <v>0.02566323094298738</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02951991528598129</v>
+        <v>0.02952011106941841</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03531541618811879</v>
+        <v>0.03731808989043454</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04878151327013532</v>
+        <v>0.04730922631776519</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02900828045585786</v>
+        <v>0.02897119623926194</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.03068953915833251</v>
+        <v>0.03159727229142706</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.03232136016814892</v>
+        <v>0.032515442930118</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.03851613994573275</v>
+        <v>0.03917924516801198</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05528197507528019</v>
+        <v>0.05391126120619262</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05426562451056741</v>
+        <v>0.05422327991262356</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04702297052952883</v>
+        <v>0.04780364578625811</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04618545658665479</v>
+        <v>0.04815097651909467</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05228037016590405</v>
+        <v>0.05416401003203759</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05595993886369741</v>
+        <v>0.05716286744704229</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06827899733266908</v>
+        <v>0.06907112646092053</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07712993668476757</v>
+        <v>0.07825916701651935</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.04836297104126006</v>
+        <v>0.04899607467456114</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.0502663487270554</v>
+        <v>0.05192271365063259</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05203686518339962</v>
+        <v>0.05349582782466086</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.05812045488644974</v>
+        <v>0.05779989996998697</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.05373387652741457</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.03163006843644426</v>
@@ -1785,7 +1785,7 @@
         <v>0.04247045375638014</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2630</v>
+        <v>2581</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5393</v>
+        <v>5510</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5941</v>
+        <v>6036</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9419</v>
+        <v>9060</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11571</v>
+        <v>12233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7226</v>
+        <v>6825</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5048</v>
+        <v>4391</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4845</v>
+        <v>5134</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21278</v>
+        <v>21343</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>15363</v>
+        <v>14720</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16577</v>
+        <v>16324</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13077</v>
+        <v>13016</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20260</v>
+        <v>19153</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19762</v>
+        <v>19688</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28711</v>
+        <v>29867</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10266</v>
+        <v>10748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28600</v>
+        <v>30259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>22280</v>
+        <v>22111</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>18714</v>
+        <v>18004</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18851</v>
+        <v>18358</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>42461</v>
+        <v>42849</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36600</v>
+        <v>34697</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>40516</v>
+        <v>40346</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5031</v>
+        <v>5554</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20966</v>
+        <v>21720</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8860</v>
+        <v>7998</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13944</v>
+        <v>13567</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21315</v>
+        <v>22238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26967</v>
+        <v>26799</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25643</v>
+        <v>25741</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20310</v>
+        <v>21567</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>30876</v>
+        <v>30584</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>54593</v>
+        <v>52667</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>36850</v>
+        <v>37763</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>39439</v>
+        <v>40023</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19641</v>
+        <v>20129</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47619</v>
+        <v>48326</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24640</v>
+        <v>24005</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41029</v>
+        <v>38832</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43383</v>
+        <v>43974</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>50419</v>
+        <v>52082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49104</v>
+        <v>49495</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39547</v>
+        <v>38936</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>57940</v>
+        <v>56470</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>93118</v>
+        <v>88466</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>65437</v>
+        <v>65016</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69491</v>
+        <v>70498</v>
       </c>
     </row>
     <row r="12">
@@ -2511,37 +2511,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2873</v>
+        <v>2907</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3999</v>
+        <v>4361</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4534</v>
+        <v>4240</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4685</v>
+        <v>4577</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16196</v>
+        <v>16041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5409</v>
+        <v>5380</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4344</v>
+        <v>4395</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5976</v>
+        <v>5755</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>22268</v>
+        <v>22159</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11821</v>
+        <v>12430</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10842</v>
+        <v>9662</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8891</v>
+        <v>10716</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14232</v>
+        <v>13690</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16611</v>
+        <v>17012</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18866</v>
+        <v>18131</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16278</v>
+        <v>15486</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35089</v>
+        <v>35595</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17277</v>
+        <v>17516</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13816</v>
+        <v>13263</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20181</v>
+        <v>20046</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43908</v>
+        <v>43473</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28729</v>
+        <v>29743</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>27126</v>
+        <v>27130</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4517</v>
+        <v>4366</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3086</v>
+        <v>3199</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8762</v>
+        <v>8949</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2671</v>
+        <v>2298</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7161</v>
+        <v>7098</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9341</v>
+        <v>9221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17431</v>
+        <v>17049</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7020</v>
+        <v>6357</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>14909</v>
+        <v>14286</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15041</v>
+        <v>15369</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>28835</v>
+        <v>28565</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12491</v>
+        <v>12021</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18486</v>
+        <v>18725</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15416</v>
+        <v>14822</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25905</v>
+        <v>26108</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18586</v>
+        <v>17876</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21353</v>
+        <v>22231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24846</v>
+        <v>24374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38700</v>
+        <v>36829</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22169</v>
+        <v>21443</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34071</v>
+        <v>33696</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>34505</v>
+        <v>33958</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>56800</v>
+        <v>56496</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>33507</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2899</v>
+        <v>2821</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4036</v>
+        <v>3998</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1693</v>
+        <v>1697</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3092</v>
+        <v>3044</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10423</v>
+        <v>10467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13412</v>
+        <v>13443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5218</v>
+        <v>5594</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5325</v>
+        <v>5415</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16048</v>
+        <v>15728</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>21578</v>
+        <v>20694</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8306</v>
+        <v>8355</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9944</v>
+        <v>10169</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13309</v>
+        <v>13398</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>15880</v>
+        <v>16224</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9874</v>
+        <v>9799</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13495</v>
+        <v>13572</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28712</v>
+        <v>27563</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31021</v>
+        <v>30580</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>17334</v>
+        <v>17244</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14251</v>
+        <v>14071</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36816</v>
+        <v>35452</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42030</v>
+        <v>42378</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>22835</v>
+        <v>23427</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>23829</v>
+        <v>24368</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4683</v>
+        <v>4973</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4919</v>
+        <v>4878</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2608</v>
+        <v>2779</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5003</v>
+        <v>4891</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7579</v>
+        <v>8172</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7482</v>
+        <v>7918</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5567</v>
+        <v>5587</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8459</v>
+        <v>7954</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15617</v>
+        <v>15474</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>14725</v>
+        <v>14791</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9890</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11116</v>
+        <v>11248</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18332</v>
+        <v>18832</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>17817</v>
+        <v>17235</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13505</v>
+        <v>13061</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18368</v>
+        <v>17290</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>23872</v>
+        <v>24967</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>23216</v>
+        <v>24178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>17823</v>
+        <v>16984</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>23139</v>
+        <v>24673</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>35202</v>
+        <v>35943</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>33633</v>
+        <v>34960</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>24708</v>
+        <v>25490</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4162</v>
+        <v>4310</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4883</v>
+        <v>5181</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>8165</v>
+        <v>7970</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13640</v>
+        <v>13568</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>11328</v>
+        <v>11367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>18581</v>
+        <v>18948</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28798</v>
+        <v>28543</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>43551</v>
+        <v>43702</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>19021</v>
+        <v>18820</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>27419</v>
+        <v>27599</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>40355</v>
+        <v>40399</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>61966</v>
+        <v>62124</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17692</v>
+        <v>18392</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18287</v>
+        <v>17737</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25662</v>
+        <v>25498</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>33824</v>
+        <v>34552</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29653</v>
+        <v>28959</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40573</v>
+        <v>40800</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>54403</v>
+        <v>54004</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>72974</v>
+        <v>72881</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>40738</v>
+        <v>41263</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>53618</v>
+        <v>55017</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>70280</v>
+        <v>71698</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>98898</v>
+        <v>97918</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19248</v>
+        <v>18880</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>19426</v>
+        <v>19010</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>17641</v>
+        <v>16826</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>17657</v>
+        <v>17488</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>19934</v>
+        <v>20107</v>
       </c>
       <c r="H34" s="6" t="n">
         <v>24251</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>29176</v>
+        <v>30831</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>40489</v>
+        <v>39267</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>44275</v>
+        <v>44218</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>49057</v>
+        <v>50508</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>51868</v>
+        <v>52179</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>62707</v>
+        <v>63787</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>41062</v>
+        <v>40044</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>42163</v>
+        <v>42130</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>36611</v>
+        <v>37219</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>36859</v>
+        <v>38428</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>40962</v>
+        <v>42438</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>45972</v>
+        <v>46960</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>56410</v>
+        <v>57064</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>64018</v>
+        <v>64956</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>73816</v>
+        <v>74782</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>80350</v>
+        <v>82998</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>83506</v>
+        <v>85847</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>94625</v>
+        <v>94103</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
     </row>
     <row r="40">
